--- a/output/pesquisa2.xlsx
+++ b/output/pesquisa2.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A336"/>
+  <dimension ref="A1:A322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,422 +348,422 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>5195230167</v>
+        <v>5185629329</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>5481107257</v>
+        <v>5198570101</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>5191145084</v>
+        <v>5182096893</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>5180111788</v>
+        <v>5381561785</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>5199837149</v>
+        <v>5191003305</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>5192127420</v>
+        <v>5391718005</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>5195985012</v>
+        <v>5596316332</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>5195982111</v>
+        <v>5199972760</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>5185278784</v>
+        <v>5199840400</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>5199870531</v>
+        <v>5199449945</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>5192352166</v>
+        <v>5481107257</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>5384622876</v>
+        <v>5192676238</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>5599954002</v>
+        <v>5194441933</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>5197362665</v>
+        <v>5181171070</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>5185117162</v>
+        <v>5199492870</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>5185416666</v>
+        <v>5191498110</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>5492112438</v>
+        <v>5197712105</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>5193569988</v>
+        <v>5186379661</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>5185111608</v>
+        <v>5592291001</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>5196171774</v>
+        <v>5391170535</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>5399383100</v>
+        <v>5191510971</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>5198062922</v>
+        <v>5184302620</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>5199935007</v>
+        <v>5182639576</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>5193120824</v>
+        <v>4784073753</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>5196031292</v>
+        <v>5197267170</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>5192681739</v>
+        <v>5197704998</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>5497116239</v>
+        <v>5189067492</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>5499455114</v>
+        <v>8196325241</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>5196127755</v>
+        <v>5195501556</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>5195479500</v>
+        <v>5182988564</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>5199095494</v>
+        <v>5384477467</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>5191632630</v>
+        <v>5496105566</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>5184616145</v>
+        <v>1992042297</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>5591777275</v>
+        <v>5499808602</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>5597155017</v>
+        <v>5195982111</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>5134593391</v>
+        <v>5189110939</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>5121230707</v>
+        <v>5599954002</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>5191242607</v>
+        <v>5135736979</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>5185180064</v>
+        <v>5194272250</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>5196480153</v>
+        <v>5384622876</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>5592008066</v>
+        <v>5491815799</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>5196576659</v>
+        <v>5197362665</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>5181441565</v>
+        <v>5185416666</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>5192105057</v>
+        <v>5197785151</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>5199189966</v>
+        <v>5186085513</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>5197018500</v>
+        <v>5492463076</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>5391620042</v>
+        <v>5384039234</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>5197233563</v>
+        <v>5185111608</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>5491679793</v>
+        <v>5384163045</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>5199836776</v>
+        <v>5185117162</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>5184915551</v>
+        <v>5499455114</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>5189513671</v>
+        <v>5399383100</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>5381504550</v>
+        <v>5199785535</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>5199449945</v>
+        <v>5193120824</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>5193261343</v>
+        <v>4792673937</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>5136652002</v>
+        <v>5134593391</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>5182133000</v>
+        <v>5199688452</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>5381006101</v>
+        <v>5180111788</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>5196968797</v>
+        <v>5184482192</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>5199914285</v>
+        <v>5497116239</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>5491453030</v>
+        <v>5381347945</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>5384470938</v>
+        <v>5191915402</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>5182988564</v>
+        <v>5189513671</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>5384477467</v>
+        <v>5199418999</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>5189067492</v>
+        <v>5136652002</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>5391170535</v>
+        <v>5196576659</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>5196156327</v>
+        <v>5199672000</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>5332278847</v>
+        <v>5199836776</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>5599276675</v>
+        <v>5199189966</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>5192186921</v>
+        <v>5195479500</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>5195850502</v>
+        <v>5186006800</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>5197143036</v>
+        <v>5184616145</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>5184302620</v>
+        <v>5192441159</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>5199418999</v>
+        <v>5198618949</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>5199840400</v>
+        <v>5196480153</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>5182639576</v>
+        <v>5191242607</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>5196072587</v>
+        <v>5185180064</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>5191844038</v>
+        <v>5592008066</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>5199668232</v>
+        <v>5192105057</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>5384422861</v>
+        <v>5197233563</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>5199727282</v>
+        <v>5198978781</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>5195842400</v>
+        <v>5199492219</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>5189262789</v>
+        <v>5196072587</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>5381561785</v>
+        <v>5196582808</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -773,1256 +773,1186 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>4791093650</v>
+        <v>5199827891</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>5381530912</v>
+        <v>5195842400</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>5499778793</v>
+        <v>5199668232</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>5192883618</v>
+        <v>5195567071</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>5199972760</v>
+        <v>5381045339</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>5199093689</v>
+        <v>5189262789</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>5191635406</v>
+        <v>5599302121</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>5196793550</v>
+        <v>5196180841</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>5185107238</v>
+        <v>5491616833</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>5199865472</v>
+        <v>5199546335</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>5186111880</v>
+        <v>5186179071</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>8196325241</v>
+        <v>5191676712</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>5491101301</v>
+        <v>5193936515</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>5499832115</v>
+        <v>5191042550</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>5199686262</v>
+        <v>5193925547</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>5182165957</v>
+        <v>5496478960</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>5499803491</v>
+        <v>5191773831</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>5496504904</v>
+        <v>5584288889</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>5196822227</v>
+        <v>5184410490</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>5491155991</v>
+        <v>5191635406</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>5496478960</v>
+        <v>5199865472</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>5499048862</v>
+        <v>5199941589</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>5196180841</v>
+        <v>5199686262</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>2197991302</v>
+        <v>5181444223</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>5391454894</v>
+        <v>5499832115</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>5196048800</v>
+        <v>5399714445</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>5191477570</v>
+        <v>5192484971</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>5584288889</v>
+        <v>5199674010</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>5184796036</v>
+        <v>5184103322</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>5191676712</v>
+        <v>5499667265</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>5198378308</v>
+        <v>5182165957</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>5196736347</v>
+        <v>5499803491</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>5199866133</v>
+        <v>5192831835</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>5133989700</v>
+        <v>5196822227</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>5182030007</v>
+        <v>5184244229</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>5182657545</v>
+        <v>5192437980</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>5181308111</v>
+        <v>5499579520</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>5199956319</v>
+        <v>5193115652</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>5191042550</v>
+        <v>5193708617</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>4999179033</v>
+        <v>5199204800</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>5185099239</v>
+        <v>5193994751</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>5183282535</v>
+        <v>5496260528</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>5193010651</v>
+        <v>5384855916</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>5599668398</v>
+        <v>5181347742</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>5184276848</v>
+        <v>5181685058</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>5198861368</v>
+        <v>5193136024</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>5193491710</v>
+        <v>5592387666</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>5198112224</v>
+        <v>5196960896</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>5492647362</v>
+        <v>6699444747</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>5193708617</v>
+        <v>5384389401</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>5193270991</v>
+        <v>5189114081</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>5191465223</v>
+        <v>5491885499</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>5192437980</v>
+        <v>5196535304</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>5181347742</v>
+        <v>5185041050</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>5399333362</v>
+        <v>5196700587</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>5191167951</v>
+        <v>5432861688</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>5592387666</v>
+        <v>5499171835</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>5181444223</v>
+        <v>5399652271</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>5182118013</v>
+        <v>5591635700</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>5192831835</v>
+        <v>5499865665</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>5198771595</v>
+        <v>5180550829</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>5384290324</v>
+        <v>5191419409</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>5432861688</v>
+        <v>5191308954</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>5193136024</v>
+        <v>5121230707</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>5181685058</v>
+        <v>5496196020</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>5592291001</v>
+        <v>5197228546</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>8198647244</v>
+        <v>5181444450</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>5496260528</v>
+        <v>5197923881</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>2191967552</v>
+        <v>5191170347</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>5196960896</v>
+        <v>5191284680</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>5196488654</v>
+        <v>5199697803</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>5196512486</v>
+        <v>5181914196</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>5199818134</v>
+        <v>5199407035</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>5196967323</v>
+        <v>5197646013</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>5191170347</v>
+        <v>5499834889</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>5189114081</v>
+        <v>5481229099</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>4796942510</v>
+        <v>5184425272</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>5181827666</v>
+        <v>5180405040</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>5499608084</v>
+        <v>5399662467</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>5491885499</v>
+        <v>5491183711</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>5596352092</v>
+        <v>5184336251</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>5191987972</v>
+        <v>5182118013</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>5191284680</v>
+        <v>5199647429</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>5199829164</v>
+        <v>5599120654</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>5184082020</v>
+        <v>8198647244</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>5181914196</v>
+        <v>5180212441</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>5186405383</v>
+        <v>5499608084</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>5199407035</v>
+        <v>5196488654</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>5197646013</v>
+        <v>5196967323</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>6181337334</v>
+        <v>5499442213</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>5481229099</v>
+        <v>5332278847</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>5491513999</v>
+        <v>5196967323</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>5185041050</v>
+        <v>5133989700</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>5182949482</v>
+        <v>5199866133</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>5192531042</v>
+        <v>5181308111</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>5192193095</v>
+        <v>5199628296</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>5180405040</v>
+        <v>5193010651</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>5491183711</v>
+        <v>5183282535</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>5591635700</v>
+        <v>5391229301</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>5181419915</v>
+        <v>5184276848</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>5399652271</v>
+        <v>5180530634</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>5198128010</v>
+        <v>5199814937</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>5399662467</v>
+        <v>5198771595</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>5199647429</v>
+        <v>5196512486</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>5191308954</v>
+        <v>5496504904</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>5496196020</v>
+        <v>5191916666</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>4799735544</v>
+        <v>5492402815</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>5180550829</v>
+        <v>5191216372</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>5499171835</v>
+        <v>4891353912</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>2172171768</v>
+        <v>5181423578</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>4891353912</v>
+        <v>5381334994</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>5184269996</v>
+        <v>5499398896</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>5181254215</v>
+        <v>5191304555</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>5192054234</v>
+        <v>5193116417</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>5199780489</v>
+        <v>5199833051</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>5496473026</v>
+        <v>5196352819</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>5193875522</v>
+        <v>5591679712</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>5199123458</v>
+        <v>5181586002</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>5332225872</v>
+        <v>5196919161</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>5185059295</v>
+        <v>5192387855</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>5182287517</v>
+        <v>5597060777</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>5191304555</v>
+        <v>5491907869</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>4792704797</v>
+        <v>5199809676</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>5491585047</v>
+        <v>5199433448</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>5192387855</v>
+        <v>5381438385</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>5199833051</v>
+        <v>5196406675</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>5196919161</v>
+        <v>5599038280</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>5195230167</v>
+        <v>5192400150</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>5197028592</v>
+        <v>5196541302</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>5185461666</v>
+        <v>5195028401</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>5196406675</v>
+        <v>5181423797</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>5184401830</v>
+        <v>5185709078</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>5199278272</v>
+        <v>8192988409</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>5181038356</v>
+        <v>5192985353</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>5591374112</v>
+        <v>5491451607</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>5599038280</v>
+        <v>5196606433</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>5484383676</v>
+        <v>5191273417</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>5192907160</v>
+        <v>5184401830</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>8192988409</v>
+        <v>5496473026</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>5591187197</v>
+        <v>4884351693</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>5381126027</v>
+        <v>5332225872</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>5198687333</v>
+        <v>5193875522</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>5496205981</v>
+        <v>5199698801</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>5195145061</v>
+        <v>5193327080</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>5185842286</v>
+        <v>5182287517</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>4792382328</v>
+        <v>5198797422</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>5197081273</v>
+        <v>5191178212</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>5181379485</v>
+        <v>5496205981</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>5481329393</v>
+        <v>5491585047</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>5181054364</v>
+        <v>5184522200</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>5185514786</v>
+        <v>5191619444</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>5131105555</v>
+        <v>5197068027</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>5130673003</v>
+        <v>5181618976</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>5196606433</v>
+        <v>5134282303</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>5182403003</v>
+        <v>5191037030</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>5192985353</v>
+        <v>5134724242</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>5185458581</v>
+        <v>5130864232</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>5191614905</v>
+        <v>5381043262</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>5381267137</v>
+        <v>5198128484</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>5491451607</v>
+        <v>5181054364</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>5196417385</v>
+        <v>5199140734</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>5193105338</v>
+        <v>5599407670</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>5496913290</v>
+        <v>5193105338</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>5599407670</v>
+        <v>5191769383</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>5134282303</v>
+        <v>5596249501</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>5192530806</v>
+        <v>5193342616</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>5399214939</v>
+        <v>5131105555</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>5195245678</v>
+        <v>5199513000</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>5134724242</v>
+        <v>5185774925</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>5191216401</v>
+        <v>5499960366</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>5130864232</v>
+        <v>4792382328</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>5195361012</v>
+        <v>5184464646</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>5199096055</v>
+        <v>4896117190</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>5183084121</v>
+        <v>5199533849</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>5197068027</v>
+        <v>5198144010</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>5192346554</v>
+        <v>5185842286</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>5134160222</v>
+        <v>5192346554</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>2796993888</v>
+        <v>5192530806</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>5381156867</v>
+        <v>5182403003</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>5196646999</v>
+        <v>5199446375</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>1141265400</v>
+        <v>5195767980</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>5196139912</v>
+        <v>5186039044</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>5199140734</v>
+        <v>1187785215</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>5191769383</v>
+        <v>5499258081</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>5192817794</v>
+        <v>5196114619</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>5191134660</v>
+        <v>5195719154</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>5596249501</v>
+        <v>5199668833</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>5193342616</v>
+        <v>5195361012</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>5596805323</v>
+        <v>5183084121</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>5199912399</v>
+        <v>5484334001</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>5499960366</v>
+        <v>5198071811</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>5198060341</v>
+        <v>5199096055</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>5195767980</v>
+        <v>5198313330</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>5193875386</v>
+        <v>5499115662</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>5180553364</v>
+        <v>5181236760</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>5192056510</v>
+        <v>5181145900</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>5180220060</v>
+        <v>5181119955</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>5384287453</v>
+        <v>5184741099</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>5499258081</v>
+        <v>5199806425</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>5199446375</v>
+        <v>5193503640</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>5184517496</v>
+        <v>5191463200</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>5199668833</v>
+        <v>5181439403</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>5196114619</v>
+        <v>5184269996</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>5484334001</v>
+        <v>1141265400</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>5192062253</v>
+        <v>5381156867</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>5198071811</v>
+        <v>5133988705</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>5499115662</v>
+        <v>5130860014</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>5496132242</v>
+        <v>5130621900</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>5195972688</v>
+        <v>5133770479</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>5193503640</v>
+        <v>5183156666</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>5130860014</v>
+        <v>5133964488</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>5184732624</v>
+        <v>5135732221</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>5198197695</v>
+        <v>5130353530</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>5133770479</v>
+        <v>5133077777</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>5180453047</v>
+        <v>5130856644</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>5183156666</v>
+        <v>5133140000</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>5195719154</v>
+        <v>5196865516</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>5198313330</v>
+        <v>5130730101</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>5133964488</v>
+        <v>5197273122</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>5181141105</v>
+        <v>1151822222</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>5181119955</v>
+        <v>5192308410</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>5130353530</v>
+        <v>1932315777</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>5496346610</v>
+        <v>5599701910</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>5133988705</v>
+        <v>5197856105</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>1137824933</v>
+        <v>5184396317</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>4898420696</v>
+        <v>5430137001</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>5197273122</v>
+        <v>5135740799</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>5199744198</v>
+        <v>5133032700</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>5135732221</v>
+        <v>5134169500</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>5484125188</v>
+        <v>5140666262</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>5133140000</v>
+        <v>5191911854</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>5130856644</v>
+        <v>5197941211</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>5130621900</v>
+        <v>5432951488</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>5192387228</v>
+        <v>5141040625</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>5130730101</v>
+        <v>5193429395</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>1151822222</v>
+        <v>5184862921</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>5130751313</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323">
-        <v>1932315777</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324">
-        <v>5184396317</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325">
-        <v>5430137001</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326">
-        <v>5198073349</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327">
-        <v>5196865516</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328">
-        <v>5135740799</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329">
-        <v>5184862921</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330">
-        <v>5197941211</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331">
-        <v>5141040625</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332">
-        <v>5432951488</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333">
-        <v>5193429395</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334">
-        <v>5191911854</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335">
-        <v>5140666262</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336">
         <v>5130454333</v>
       </c>
     </row>
